--- a/src/lecture4/scores.xlsx
+++ b/src/lecture4/scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>名前</t>
   </si>
@@ -200,6 +200,36 @@
   </si>
   <si>
     <t>Student 10</t>
+  </si>
+  <si>
+    <t>Aiko Tanaka</t>
+  </si>
+  <si>
+    <t>Daiki Sato</t>
+  </si>
+  <si>
+    <t>Emi Suzuki</t>
+  </si>
+  <si>
+    <t>Haruto Takahashi</t>
+  </si>
+  <si>
+    <t>Yui Ito</t>
+  </si>
+  <si>
+    <t>Kenta Watanabe</t>
+  </si>
+  <si>
+    <t>Mao Yamamoto</t>
+  </si>
+  <si>
+    <t>Riku Kobayashi</t>
+  </si>
+  <si>
+    <t>Nana Kondo</t>
+  </si>
+  <si>
+    <t>Sho Matsui</t>
   </si>
 </sst>
 </file>
@@ -594,7 +624,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -611,50 +641,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>92</v>
       </c>
       <c r="E2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -662,121 +692,121 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
         <v>79</v>
       </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
       <c r="E6">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/lecture4/scores.xlsx
+++ b/src/lecture4/scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>名前</t>
   </si>
@@ -230,6 +230,48 @@
   </si>
   <si>
     <t>Sho Matsui</t>
+  </si>
+  <si>
+    <t>科目1</t>
+  </si>
+  <si>
+    <t>科目2</t>
+  </si>
+  <si>
+    <t>科目3</t>
+  </si>
+  <si>
+    <t>科目4</t>
+  </si>
+  <si>
+    <t>学生1</t>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>学生5</t>
+  </si>
+  <si>
+    <t>学生6</t>
+  </si>
+  <si>
+    <t>学生7</t>
+  </si>
+  <si>
+    <t>学生8</t>
+  </si>
+  <si>
+    <t>学生9</t>
+  </si>
+  <si>
+    <t>学生10</t>
   </si>
 </sst>
 </file>
@@ -624,189 +666,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>92</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>85</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
         <v>91</v>
-      </c>
-      <c r="D6">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/lecture4/scores.xlsx
+++ b/src/lecture4/scores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/exkazuu/ghq/github.com/exKAZUu/intro-to-ai-agent-dev/src/lecture3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/exkazuu/ghq/github.com/exKAZUu/intro-to-ai-agent-dev/src/lecture4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scores" sheetId="2" r:id="rId5"/>
+    <sheet name="Scores" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名前</t>
   </si>
@@ -37,241 +37,34 @@
     <t>理科</t>
   </si>
   <si>
-    <t>田中 太郎</t>
-  </si>
-  <si>
-    <t>佐藤 花子</t>
-  </si>
-  <si>
-    <t>鈴木 次郎</t>
-  </si>
-  <si>
-    <t>高橋 美咲</t>
-  </si>
-  <si>
-    <t>伊藤 健</t>
-  </si>
-  <si>
-    <t>山本 愛</t>
-  </si>
-  <si>
-    <t>中村 光</t>
-  </si>
-  <si>
-    <t>小林 拓也</t>
-  </si>
-  <si>
-    <t>加藤 綾</t>
-  </si>
-  <si>
-    <t>吉田 陽子</t>
-  </si>
-  <si>
-    <t>田中太郎</t>
-  </si>
-  <si>
-    <t>鈴木花子</t>
-  </si>
-  <si>
-    <t>佐藤健</t>
-  </si>
-  <si>
-    <t>高橋葵</t>
-  </si>
-  <si>
-    <t>伊藤直樹</t>
-  </si>
-  <si>
-    <t>渡辺明美</t>
-  </si>
-  <si>
-    <t>山本涼介</t>
-  </si>
-  <si>
-    <t>中村優子</t>
-  </si>
-  <si>
-    <t>小林大地</t>
-  </si>
-  <si>
-    <t>加藤美咲</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Sora Yamamoto</t>
-  </si>
-  <si>
-    <t>Haru Suzuki</t>
-  </si>
-  <si>
-    <t>Yuki Tanaka</t>
-  </si>
-  <si>
-    <t>Mei Kobayashi</t>
-  </si>
-  <si>
-    <t>Kaito Ito</t>
-  </si>
-  <si>
-    <t>Aoi Nakamura</t>
-  </si>
-  <si>
-    <t>Ren Sato</t>
-  </si>
-  <si>
-    <t>Riko Matsubara</t>
-  </si>
-  <si>
-    <t>Daiki Kondo</t>
-  </si>
-  <si>
-    <t>Nao Fujii</t>
-  </si>
-  <si>
-    <t>佐藤 太郎</t>
-  </si>
-  <si>
-    <t>鈴木 花子</t>
-  </si>
-  <si>
-    <t>高橋 一郎</t>
-  </si>
-  <si>
-    <t>田中 美咲</t>
-  </si>
-  <si>
-    <t>渡辺 里奈</t>
-  </si>
-  <si>
-    <t>山本 翔</t>
-  </si>
-  <si>
-    <t>中村 優子</t>
-  </si>
-  <si>
-    <t>小林 大輔</t>
-  </si>
-  <si>
-    <t>加藤 麻衣</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
-  </si>
-  <si>
-    <t>Student 5</t>
-  </si>
-  <si>
-    <t>Student 6</t>
-  </si>
-  <si>
-    <t>Student 7</t>
-  </si>
-  <si>
-    <t>Student 8</t>
-  </si>
-  <si>
-    <t>Student 9</t>
-  </si>
-  <si>
-    <t>Student 10</t>
-  </si>
-  <si>
-    <t>Aiko Tanaka</t>
-  </si>
-  <si>
-    <t>Daiki Sato</t>
-  </si>
-  <si>
-    <t>Emi Suzuki</t>
-  </si>
-  <si>
-    <t>Haruto Takahashi</t>
-  </si>
-  <si>
-    <t>Yui Ito</t>
-  </si>
-  <si>
-    <t>Kenta Watanabe</t>
-  </si>
-  <si>
-    <t>Mao Yamamoto</t>
-  </si>
-  <si>
-    <t>Riku Kobayashi</t>
-  </si>
-  <si>
-    <t>Nana Kondo</t>
-  </si>
-  <si>
-    <t>Sho Matsui</t>
-  </si>
-  <si>
-    <t>科目1</t>
-  </si>
-  <si>
-    <t>科目2</t>
-  </si>
-  <si>
-    <t>科目3</t>
-  </si>
-  <si>
-    <t>科目4</t>
-  </si>
-  <si>
-    <t>学生1</t>
-  </si>
-  <si>
-    <t>学生2</t>
-  </si>
-  <si>
-    <t>学生3</t>
-  </si>
-  <si>
-    <t>学生4</t>
-  </si>
-  <si>
-    <t>学生5</t>
-  </si>
-  <si>
-    <t>学生6</t>
-  </si>
-  <si>
-    <t>学生7</t>
-  </si>
-  <si>
-    <t>学生8</t>
-  </si>
-  <si>
-    <t>学生9</t>
-  </si>
-  <si>
-    <t>学生10</t>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>高橋</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>伊藤</t>
+  </si>
+  <si>
+    <t>渡辺</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>中村</t>
+  </si>
+  <si>
+    <t>小林</t>
+  </si>
+  <si>
+    <t>加藤</t>
   </si>
 </sst>
 </file>
@@ -669,186 +462,186 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3">
+        <v>69</v>
+      </c>
+      <c r="E3">
         <v>80</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>92</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>88</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/lecture4/scores.xlsx
+++ b/src/lecture4/scores.xlsx
@@ -8,88 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/exkazuu/ghq/github.com/exKAZUu/intro-to-ai-agent-dev/src/lecture4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8765F2CB-C355-F641-AC18-9BE966C8348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="700" windowWidth="18200" windowHeight="8500"/>
+    <workbookView xWindow="480" yWindow="700" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scores" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>国語</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>理科</t>
-  </si>
-  <si>
-    <t>佐藤</t>
-  </si>
-  <si>
-    <t>鈴木</t>
-  </si>
-  <si>
-    <t>高橋</t>
-  </si>
-  <si>
-    <t>田中</t>
-  </si>
-  <si>
-    <t>伊藤</t>
-  </si>
-  <si>
-    <t>渡辺</t>
-  </si>
-  <si>
-    <t>山本</t>
-  </si>
-  <si>
-    <t>中村</t>
-  </si>
-  <si>
-    <t>小林</t>
-  </si>
-  <si>
-    <t>加藤</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,7 +72,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -130,7 +80,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,7 +93,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,202 +398,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>76</v>
-      </c>
-      <c r="D2">
-        <v>91</v>
-      </c>
-      <c r="E2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>88</v>
-      </c>
-      <c r="D3">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>71</v>
-      </c>
-      <c r="E5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>84</v>
-      </c>
-      <c r="D6">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>59</v>
-      </c>
-      <c r="C7">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>55</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>77</v>
-      </c>
-      <c r="C8">
-        <v>81</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>70</v>
-      </c>
-      <c r="D9">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>91</v>
-      </c>
-      <c r="C10">
-        <v>89</v>
-      </c>
-      <c r="D10">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
-      <c r="E11">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>